--- a/Inductance/CalcSpeed.xlsx
+++ b/Inductance/CalcSpeed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tukad\OneDrive\ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5013541\Documents\GitHub\HTSMagneticCloak\Inductance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4D28AC3-EF89-4A83-856F-D6A104BDF619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1C71FE-09B8-467D-99FA-AC75B11D8D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4815" windowWidth="29040" windowHeight="15840" xr2:uid="{7E533CFA-6213-4E59-B4EE-D7D04A12A909}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E533CFA-6213-4E59-B4EE-D7D04A12A909}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
   <si>
     <t>並列なし</t>
     <rPh sb="0" eb="2">
@@ -444,19 +444,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94D3C4A-2C03-4D3F-A0D5-98BB5B169990}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="8" max="8" width="8.8984375" customWidth="1"/>
     <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +473,14 @@
       <c r="K1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -507,8 +514,20 @@
       <c r="M2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>100</v>
       </c>
@@ -535,8 +554,19 @@
         <f>100*(K3-B3)/B3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1.43749E-5</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="2">
+        <f>100*(P3-B3)/B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>200</v>
       </c>
@@ -563,8 +593,18 @@
         <f t="shared" ref="M4:M9" si="1">100*(K4-B4)/B4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O4">
+        <v>200</v>
+      </c>
+      <c r="P4" s="1">
+        <v>8.1081999999999997E-6</v>
+      </c>
+      <c r="R4" s="2">
+        <f t="shared" ref="R4:R9" si="2">100*(P4-B4)/B4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>500</v>
       </c>
@@ -591,8 +631,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O5">
+        <v>500</v>
+      </c>
+      <c r="P5" s="1">
+        <v>3.6948499999999999E-6</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1000</v>
       </c>
@@ -619,8 +669,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O6">
+        <v>1000</v>
+      </c>
+      <c r="P6" s="1">
+        <v>2.23036E-6</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -656,8 +716,21 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O7">
+        <v>2000</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1.5988E-6</v>
+      </c>
+      <c r="Q7">
+        <v>4.0519999999999996</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5000</v>
       </c>
@@ -693,8 +766,21 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O8">
+        <v>5000</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1.3633999999999999E-6</v>
+      </c>
+      <c r="Q8">
+        <v>8.7750000000000004</v>
+      </c>
+      <c r="R8" s="2">
+        <f>100*(P8-B8)/B8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>10000</v>
       </c>
@@ -729,6 +815,25 @@
       <c r="M9" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="O9">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1.34476E-6</v>
+      </c>
+      <c r="Q9">
+        <v>17.837</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="N11">
+        <f>100*Q9/C9</f>
+        <v>6.3706301698644232</v>
       </c>
     </row>
   </sheetData>
